--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.24.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.24.xlsx
@@ -49,6 +49,9 @@
     <t>גב' רונן</t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
     <t>יעל.</t>
   </si>
   <si>
@@ -64,15 +67,12 @@
     <t>כן, יואב.</t>
   </si>
   <si>
-    <t>trans</t>
+    <t>agree</t>
   </si>
   <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t>אם זה לא לאחרונה?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>כן זה משהו שהוא במשך כמה חודשים,</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -843,10 +843,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -989,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1445,13 +1445,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1504,7 +1504,7 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1518,7 +1518,7 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1560,7 +1560,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1602,7 +1602,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -1616,7 +1616,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1728,7 +1728,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1742,7 +1742,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1798,7 +1798,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1899,7 +1899,7 @@
         <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1910,7 +1910,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -1924,10 +1924,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1938,7 +1938,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -1952,10 +1952,10 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -1980,7 +1980,7 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
@@ -2022,7 +2022,7 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2036,7 +2036,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2092,7 +2092,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2148,7 +2148,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2190,7 +2190,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2207,7 +2207,7 @@
         <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
